--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/15/seed1/result_data_RandomForest.xlsx
@@ -491,12 +491,12 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.6803</v>
+        <v>12.17119999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.39820000000002</v>
+        <v>-21.57170000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -505,10 +505,10 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.107500000000009</v>
+        <v>-7.931300000000004</v>
       </c>
       <c r="E4" t="n">
-        <v>12.4674</v>
+        <v>12.54180000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.542799999999998</v>
+        <v>-8.546500000000002</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.64760000000001</v>
+        <v>-21.64100000000001</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.55440000000001</v>
+        <v>-21.455</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.385899999999996</v>
+        <v>-8.343199999999998</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.23300000000001</v>
+        <v>13.44680000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3902</v>
+        <v>13.2148</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>12.70600000000001</v>
+        <v>12.34350000000001</v>
       </c>
     </row>
     <row r="15">
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-19.9197</v>
+        <v>-19.99939999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.396500000000001</v>
+        <v>-8.250599999999999</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.8776</v>
+        <v>12.5566</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.13680000000003</v>
+        <v>-22.08650000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.785400000000001</v>
+        <v>-7.819499999999994</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.38359999999999</v>
+        <v>13.1179</v>
       </c>
     </row>
   </sheetData>
